--- a/excel_data/data/Basic Consumer_Equity_Keyfigures.xlsx
+++ b/excel_data/data/Basic Consumer_Equity_Keyfigures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://progredozh-my.sharepoint.com/personal/andre_riesen_progredo_ch/Documents/Desktop/Product Asset Management/PRUDENS_FUNDS/PRUDENS_ANALYSIS/Equities/Fundamental_&amp;_Technical_Analysis/Fundamental_Analysis/Company_Analysis/PRUDENS_Investment_Universe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="13_ncr:1_{EAF03C10-D8D3-43A6-AD84-3D319E78F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA8F49A0-C3AA-4813-AE8C-42E61421F526}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD1C317-43B3-4C48-9085-DF42ECEE23A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="16629" firstSheet="3" activeTab="3" xr2:uid="{A8EFDF63-01B1-4D58-BAE5-78D2830B6986}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27640" windowHeight="16620" firstSheet="1" activeTab="3" xr2:uid="{A8EFDF63-01B1-4D58-BAE5-78D2830B6986}"/>
   </bookViews>
   <sheets>
     <sheet name="M2ZkODRmZDAtMGI4NC00ND" sheetId="11" state="veryHidden" r:id="rId1"/>
@@ -3071,43 +3071,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="refinitivshim.rtdserver.tr">
-      <tp t="s">
-        <v>Nestle SA</v>
-        <stp/>
-        <stp>84</stp>
-        <stp>82611156</stp>
-        <tr r="CF4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Retrieving...</v>
-        <stp/>
-        <stp>85</stp>
-        <stp>82611156</stp>
-        <tr r="CB4" s="1"/>
-      </tp>
-      <tp>
-        <v>19.177399999999999</v>
-        <stp/>
-        <stp>83</stp>
-        <stp>82611156</stp>
-        <tr r="R4" s="4"/>
-      </tp>
-      <tp>
-        <v>21.312418949998001</v>
-        <stp/>
-        <stp>81</stp>
-        <stp>82611156</stp>
-        <tr r="AT4" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3411,9 +3374,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="4" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT4" t="s">
         <v>623</v>
       </c>
@@ -3511,7 +3474,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="5" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="5" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT5" t="s">
         <v>623</v>
       </c>
@@ -3609,7 +3572,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="6" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="6" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT6" t="s">
         <v>623</v>
       </c>
@@ -3707,7 +3670,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="7" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="7" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU7" t="s">
         <v>624</v>
       </c>
@@ -3805,7 +3768,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="8" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="8" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT8" t="s">
         <v>623</v>
       </c>
@@ -3903,7 +3866,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="9" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="9" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT9" t="s">
         <v>623</v>
       </c>
@@ -4004,7 +3967,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="10" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="10" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT10" t="s">
         <v>623</v>
       </c>
@@ -4099,7 +4062,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="11" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="11" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT11" t="s">
         <v>623</v>
       </c>
@@ -4197,7 +4160,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="12" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="12" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT12" t="s">
         <v>623</v>
       </c>
@@ -4292,7 +4255,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="13" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="13" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT13" t="s">
         <v>623</v>
       </c>
@@ -4390,7 +4353,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="14" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="14" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT14" t="s">
         <v>623</v>
       </c>
@@ -4485,7 +4448,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="17" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="17" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT17" t="s">
         <v>623</v>
       </c>
@@ -4589,7 +4552,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="18" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="18" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT18" t="s">
         <v>623</v>
       </c>
@@ -4693,7 +4656,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="19" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="19" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT19" t="s">
         <v>623</v>
       </c>
@@ -4794,7 +4757,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="20" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="20" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT20" t="s">
         <v>623</v>
       </c>
@@ -4886,7 +4849,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="21" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="21" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT21" t="s">
         <v>623</v>
       </c>
@@ -4987,7 +4950,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="22" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT22" t="s">
         <v>623</v>
       </c>
@@ -5085,7 +5048,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="23" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="23" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT23" t="s">
         <v>623</v>
       </c>
@@ -5183,7 +5146,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="24" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="24" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT24" t="s">
         <v>623</v>
       </c>
@@ -5281,7 +5244,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="25" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="25" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT25" t="s">
         <v>623</v>
       </c>
@@ -5379,7 +5342,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="26" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="26" spans="46:84" x14ac:dyDescent="0.2">
       <c r="BA26" t="s">
         <v>663</v>
       </c>
@@ -5450,7 +5413,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="27" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU27" t="s">
         <v>624</v>
       </c>
@@ -5536,7 +5499,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="28" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="28" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT28" t="s">
         <v>623</v>
       </c>
@@ -5631,7 +5594,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="32" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="32" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT32" t="s">
         <v>623</v>
       </c>
@@ -5729,7 +5692,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="33" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="33" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT33" t="s">
         <v>623</v>
       </c>
@@ -5827,7 +5790,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="34" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="34" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT34" t="s">
         <v>623</v>
       </c>
@@ -5922,7 +5885,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="35" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="35" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT35" t="s">
         <v>623</v>
       </c>
@@ -6020,7 +5983,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="36" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="36" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT36" t="s">
         <v>623</v>
       </c>
@@ -6118,7 +6081,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="37" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="37" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT37" t="s">
         <v>623</v>
       </c>
@@ -6216,7 +6179,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="38" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="38" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT38" t="s">
         <v>623</v>
       </c>
@@ -6314,7 +6277,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="39" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="39" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT39" t="s">
         <v>623</v>
       </c>
@@ -6418,7 +6381,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="40" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="40" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT40" t="s">
         <v>623</v>
       </c>
@@ -6519,7 +6482,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="41" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="41" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT41" t="s">
         <v>623</v>
       </c>
@@ -6617,7 +6580,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="42" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="42" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT42" t="s">
         <v>623</v>
       </c>
@@ -6712,7 +6675,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="43" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="43" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT43" t="s">
         <v>623</v>
       </c>
@@ -6804,7 +6767,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="44" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="44" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT44" t="s">
         <v>623</v>
       </c>
@@ -6899,7 +6862,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="45" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="45" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT45" t="s">
         <v>623</v>
       </c>
@@ -6994,7 +6957,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="46" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="46" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT46" t="s">
         <v>623</v>
       </c>
@@ -7092,7 +7055,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="47" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="47" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT47" t="s">
         <v>623</v>
       </c>
@@ -7190,7 +7153,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="48" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="48" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT48" t="s">
         <v>623</v>
       </c>
@@ -7285,7 +7248,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="49" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="49" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT49" t="s">
         <v>623</v>
       </c>
@@ -7383,7 +7346,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="53" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="53" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT53" t="s">
         <v>623</v>
       </c>
@@ -7487,7 +7450,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="54" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="54" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT54" t="s">
         <v>623</v>
       </c>
@@ -7588,7 +7551,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="55" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="55" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT55" t="s">
         <v>623</v>
       </c>
@@ -7686,7 +7649,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="56" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="56" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT56" t="s">
         <v>623</v>
       </c>
@@ -7781,7 +7744,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="57" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="57" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT57" t="s">
         <v>623</v>
       </c>
@@ -7873,7 +7836,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="58" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="58" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT58" t="s">
         <v>623</v>
       </c>
@@ -7971,7 +7934,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="61" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="61" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT61" t="s">
         <v>623</v>
       </c>
@@ -8069,7 +8032,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="62" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="62" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT62" t="s">
         <v>623</v>
       </c>
@@ -8170,7 +8133,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="63" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="63" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT63" t="s">
         <v>623</v>
       </c>
@@ -8268,7 +8231,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="64" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="64" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT64" t="s">
         <v>623</v>
       </c>
@@ -8369,7 +8332,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="65" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="65" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT65" t="s">
         <v>623</v>
       </c>
@@ -8461,7 +8424,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="66" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="66" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT66" t="s">
         <v>623</v>
       </c>
@@ -8556,7 +8519,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="67" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="67" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT67" t="s">
         <v>623</v>
       </c>
@@ -8657,7 +8620,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="68" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="68" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT68" t="s">
         <v>623</v>
       </c>
@@ -8758,7 +8721,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="69" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="69" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT69" t="s">
         <v>623</v>
       </c>
@@ -8853,7 +8816,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="70" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="70" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT70" t="s">
         <v>623</v>
       </c>
@@ -8951,7 +8914,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="71" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="71" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT71" t="s">
         <v>623</v>
       </c>
@@ -9043,7 +9006,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="72" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="72" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT72" t="s">
         <v>623</v>
       </c>
@@ -9144,7 +9107,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="73" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="73" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT73" t="s">
         <v>623</v>
       </c>
@@ -9239,7 +9202,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="74" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="74" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU74" t="s">
         <v>624</v>
       </c>
@@ -9337,7 +9300,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="75" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="75" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT75" t="s">
         <v>623</v>
       </c>
@@ -9432,7 +9395,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="76" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="76" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT76" t="s">
         <v>623</v>
       </c>
@@ -9527,7 +9490,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="77" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="77" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AX77" t="s">
         <v>627</v>
       </c>
@@ -9607,7 +9570,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="78" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="78" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT78" t="s">
         <v>623</v>
       </c>
@@ -9705,7 +9668,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="79" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="79" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT79" t="s">
         <v>623</v>
       </c>
@@ -9800,7 +9763,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="80" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="80" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT80" t="s">
         <v>623</v>
       </c>
@@ -9892,7 +9855,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="81" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="81" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT81" t="s">
         <v>623</v>
       </c>
@@ -9981,7 +9944,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="82" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="82" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT82" t="s">
         <v>623</v>
       </c>
@@ -10082,7 +10045,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="83" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="83" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT83" t="s">
         <v>623</v>
       </c>
@@ -10183,7 +10146,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="84" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="84" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT84" t="s">
         <v>623</v>
       </c>
@@ -10278,7 +10241,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="85" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="85" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT85" t="s">
         <v>623</v>
       </c>
@@ -10373,7 +10336,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="86" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="86" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT86" t="s">
         <v>623</v>
       </c>
@@ -10471,7 +10434,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="87" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="87" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT87" t="s">
         <v>623</v>
       </c>
@@ -10566,7 +10529,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="88" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="88" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT88" t="s">
         <v>623</v>
       </c>
@@ -10661,7 +10624,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="89" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="89" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT89" t="s">
         <v>623</v>
       </c>
@@ -10756,7 +10719,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="90" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="90" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT90" t="s">
         <v>623</v>
       </c>
@@ -10851,7 +10814,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="91" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="91" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT91" t="s">
         <v>623</v>
       </c>
@@ -10949,7 +10912,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="92" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="92" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT92" t="s">
         <v>623</v>
       </c>
@@ -11047,7 +11010,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="93" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="93" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT93" t="s">
         <v>623</v>
       </c>
@@ -11142,7 +11105,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="94" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="94" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT94" t="s">
         <v>623</v>
       </c>
@@ -11243,7 +11206,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="95" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="95" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT95" t="s">
         <v>623</v>
       </c>
@@ -11344,7 +11307,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="96" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="96" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT96" t="s">
         <v>623</v>
       </c>
@@ -11439,7 +11402,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="97" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="97" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT97" t="s">
         <v>623</v>
       </c>
@@ -11534,7 +11497,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="98" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="98" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT98" t="s">
         <v>623</v>
       </c>
@@ -11629,7 +11592,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="99" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="99" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT99" t="s">
         <v>623</v>
       </c>
@@ -11727,7 +11690,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="100" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="100" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT100" t="s">
         <v>623</v>
       </c>
@@ -11825,7 +11788,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="101" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="101" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT101" t="s">
         <v>623</v>
       </c>
@@ -11926,7 +11889,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="102" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="102" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT102" t="s">
         <v>623</v>
       </c>
@@ -12021,7 +11984,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="103" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="103" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT103" t="s">
         <v>623</v>
       </c>
@@ -12113,7 +12076,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="104" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="104" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT104" t="s">
         <v>623</v>
       </c>
@@ -12211,7 +12174,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="105" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="105" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AX105" t="s">
         <v>627</v>
       </c>
@@ -12291,7 +12254,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="106" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="106" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AX106" t="s">
         <v>627</v>
       </c>
@@ -12374,7 +12337,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="107" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="107" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT107" t="s">
         <v>623</v>
       </c>
@@ -12469,7 +12432,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="108" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="108" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT108" t="s">
         <v>623</v>
       </c>
@@ -12567,7 +12530,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="109" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="109" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT109" t="s">
         <v>623</v>
       </c>
@@ -12662,7 +12625,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="112" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="112" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT112" t="s">
         <v>623</v>
       </c>
@@ -12763,7 +12726,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="113" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="113" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT113" t="s">
         <v>623</v>
       </c>
@@ -12861,7 +12824,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="114" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="114" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT114" t="s">
         <v>623</v>
       </c>
@@ -12962,7 +12925,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="115" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="115" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT115" t="s">
         <v>623</v>
       </c>
@@ -13060,7 +13023,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="116" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="116" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT116" t="s">
         <v>623</v>
       </c>
@@ -13158,7 +13121,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="117" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="117" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT117" t="s">
         <v>623</v>
       </c>
@@ -13259,7 +13222,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="118" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="118" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU118" t="s">
         <v>624</v>
       </c>
@@ -13345,7 +13308,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="119" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="119" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT119" t="s">
         <v>623</v>
       </c>
@@ -13443,7 +13406,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="120" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="120" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT120" t="s">
         <v>623</v>
       </c>
@@ -13538,7 +13501,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="121" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="121" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT121" t="s">
         <v>623</v>
       </c>
@@ -13636,7 +13599,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="122" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="122" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT122" t="s">
         <v>623</v>
       </c>
@@ -13734,7 +13697,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="123" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="123" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT123" t="s">
         <v>623</v>
       </c>
@@ -13829,7 +13792,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="124" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="124" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT124" t="s">
         <v>623</v>
       </c>
@@ -13915,7 +13878,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="125" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="125" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT125" t="s">
         <v>623</v>
       </c>
@@ -14013,7 +13976,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="126" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="126" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT126" t="s">
         <v>623</v>
       </c>
@@ -14111,7 +14074,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="127" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="127" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT127" t="s">
         <v>623</v>
       </c>
@@ -14209,7 +14172,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="128" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="128" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT128" t="s">
         <v>623</v>
       </c>
@@ -14307,7 +14270,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="129" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="129" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT129" t="s">
         <v>623</v>
       </c>
@@ -14405,7 +14368,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="130" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="130" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU130" t="s">
         <v>624</v>
       </c>
@@ -14491,7 +14454,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="131" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="131" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT131" t="s">
         <v>623</v>
       </c>
@@ -14586,7 +14549,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="132" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="132" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT132" t="s">
         <v>623</v>
       </c>
@@ -14678,7 +14641,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="133" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="133" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT133" t="s">
         <v>623</v>
       </c>
@@ -14773,7 +14736,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="134" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="134" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT134" t="s">
         <v>623</v>
       </c>
@@ -14871,7 +14834,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="135" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="135" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT135" t="s">
         <v>623</v>
       </c>
@@ -14969,7 +14932,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="136" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="136" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT136" t="s">
         <v>623</v>
       </c>
@@ -15058,7 +15021,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="137" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="137" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT137" t="s">
         <v>623</v>
       </c>
@@ -15156,7 +15119,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="140" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="140" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT140" t="s">
         <v>623</v>
       </c>
@@ -15257,7 +15220,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="141" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="141" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT141" t="s">
         <v>623</v>
       </c>
@@ -15358,7 +15321,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="142" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="142" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT142" t="s">
         <v>623</v>
       </c>
@@ -15453,7 +15416,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="143" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="143" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT143" t="s">
         <v>623</v>
       </c>
@@ -15557,7 +15520,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="144" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="144" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU144" t="s">
         <v>624</v>
       </c>
@@ -15649,7 +15612,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="145" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="145" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT145" t="s">
         <v>623</v>
       </c>
@@ -15750,7 +15713,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="146" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="146" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT146" t="s">
         <v>623</v>
       </c>
@@ -15848,7 +15811,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="147" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="147" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT147" t="s">
         <v>623</v>
       </c>
@@ -15946,7 +15909,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="150" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="150" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT150" t="s">
         <v>623</v>
       </c>
@@ -16050,7 +16013,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="151" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="151" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT151" t="s">
         <v>623</v>
       </c>
@@ -16148,7 +16111,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="152" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="152" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT152" t="s">
         <v>623</v>
       </c>
@@ -16249,7 +16212,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="153" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="153" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT153" t="s">
         <v>623</v>
       </c>
@@ -16350,7 +16313,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="154" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="154" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT154" t="s">
         <v>623</v>
       </c>
@@ -16451,7 +16414,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="155" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="155" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT155" t="s">
         <v>623</v>
       </c>
@@ -16549,7 +16512,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="156" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="156" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT156" t="s">
         <v>623</v>
       </c>
@@ -16650,7 +16613,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="157" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="157" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT157" t="s">
         <v>623</v>
       </c>
@@ -16745,7 +16708,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="158" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="158" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT158" t="s">
         <v>623</v>
       </c>
@@ -16840,7 +16803,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="159" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="159" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT159" t="s">
         <v>623</v>
       </c>
@@ -16941,7 +16904,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="160" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="160" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT160" t="s">
         <v>623</v>
       </c>
@@ -17039,7 +17002,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="164" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="164" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT164" t="s">
         <v>623</v>
       </c>
@@ -17137,7 +17100,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="165" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="165" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU165" t="s">
         <v>624</v>
       </c>
@@ -17235,7 +17198,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="166" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="166" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT166" t="s">
         <v>623</v>
       </c>
@@ -17333,7 +17296,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="167" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="167" spans="46:84" x14ac:dyDescent="0.2">
       <c r="BA167" t="s">
         <v>692</v>
       </c>
@@ -17401,7 +17364,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="168" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="168" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU168" t="s">
         <v>624</v>
       </c>
@@ -17487,7 +17450,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="169" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="169" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT169" t="s">
         <v>623</v>
       </c>
@@ -17585,7 +17548,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="170" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="170" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT170" t="s">
         <v>623</v>
       </c>
@@ -17683,7 +17646,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="171" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="171" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT171" t="s">
         <v>623</v>
       </c>
@@ -17778,7 +17741,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="172" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="172" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU172" t="s">
         <v>624</v>
       </c>
@@ -17873,7 +17836,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="173" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="173" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT173" t="s">
         <v>623</v>
       </c>
@@ -17971,7 +17934,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="174" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="174" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT174" t="s">
         <v>623</v>
       </c>
@@ -18063,7 +18026,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="175" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="175" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT175" t="s">
         <v>623</v>
       </c>
@@ -18161,7 +18124,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="176" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="176" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT176" t="s">
         <v>623</v>
       </c>
@@ -18253,7 +18216,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="177" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="177" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT177" t="s">
         <v>623</v>
       </c>
@@ -18351,7 +18314,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="178" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="178" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT178" t="s">
         <v>623</v>
       </c>
@@ -18449,7 +18412,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="181" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="181" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT181" t="s">
         <v>623</v>
       </c>
@@ -18547,7 +18510,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="182" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="182" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT182" t="s">
         <v>623</v>
       </c>
@@ -18642,7 +18605,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="183" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="183" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT183" t="s">
         <v>623</v>
       </c>
@@ -18743,7 +18706,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="184" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="184" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT184" t="s">
         <v>623</v>
       </c>
@@ -18841,7 +18804,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="185" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="185" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT185" t="s">
         <v>623</v>
       </c>
@@ -18939,7 +18902,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="186" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="186" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AU186" t="s">
         <v>624</v>
       </c>
@@ -19025,7 +18988,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="187" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="187" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT187" t="s">
         <v>623</v>
       </c>
@@ -19123,7 +19086,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="190" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="190" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT190" t="s">
         <v>623</v>
       </c>
@@ -19218,7 +19181,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="191" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="191" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT191" t="s">
         <v>623</v>
       </c>
@@ -19319,7 +19282,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="192" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="192" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT192" t="s">
         <v>623</v>
       </c>
@@ -19420,7 +19383,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="193" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="193" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT193" t="s">
         <v>623</v>
       </c>
@@ -19521,7 +19484,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="194" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="194" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT194" t="s">
         <v>623</v>
       </c>
@@ -19616,7 +19579,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="195" spans="46:84" x14ac:dyDescent="0.4">
+    <row r="195" spans="46:84" x14ac:dyDescent="0.2">
       <c r="AT195" t="s">
         <v>623</v>
       </c>
@@ -19725,30 +19688,30 @@
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4609375" defaultRowHeight="14.6" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="36.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="2.84375" customWidth="1"/>
-    <col min="7" max="7" width="25.15234375" customWidth="1"/>
-    <col min="8" max="8" width="22.921875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="16.15234375" customWidth="1"/>
-    <col min="10" max="10" width="23.53515625" customWidth="1"/>
-    <col min="15" max="42" width="20.4609375" customWidth="1"/>
-    <col min="46" max="52" width="11.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="15.69140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="71" width="11.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.23046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15.69140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="15.23046875" customWidth="1"/>
-    <col min="77" max="77" width="11.4609375" style="7"/>
-    <col min="80" max="80" width="11.4609375" style="37"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="15" max="42" width="20.5" customWidth="1"/>
+    <col min="46" max="52" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="71" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15.1640625" customWidth="1"/>
+    <col min="77" max="77" width="11.5" style="7"/>
+    <col min="80" max="80" width="11.5" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:84" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:84" ht="80" x14ac:dyDescent="0.2">
       <c r="H2" s="35"/>
       <c r="I2" s="8"/>
       <c r="J2" s="20"/>
@@ -19798,7 +19761,7 @@
       <c r="AO2" s="8"/>
       <c r="AP2" s="23"/>
     </row>
-    <row r="3" spans="1:84" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:84" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -20028,7 +19991,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -20046,8 +20009,8 @@
         <v>CH0038863350</v>
       </c>
       <c r="H4" s="35" t="e">
-        <f>(BU4*BY4)*CB4</f>
-        <v>#VALUE!</v>
+        <f ca="1">(BU4*BY4)*CB4</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="9">
         <f>BV4</f>
@@ -20066,13 +20029,13 @@
         <v>89.24</v>
       </c>
       <c r="M4" s="9" t="e">
-        <f>BY4*CB4</f>
-        <v>#VALUE!</v>
+        <f ca="1">BY4*CB4</f>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="8"/>
-      <c r="O4" s="9">
-        <f>AT4</f>
-        <v>21.312418949998001</v>
+      <c r="O4" s="9" t="e">
+        <f ca="1">AT4</f>
+        <v>#NAME?</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" ref="P4:W4" si="0">AU4</f>
@@ -20185,9 +20148,9 @@
       <c r="AS4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="36">
-        <f>_xll.TR(AS4:AS195,AT3:BZ3)</f>
-        <v>21.312418949998001</v>
+      <c r="AT4" s="36" t="e">
+        <f ca="1">_xll.TR(AS4:AS195,AT3:BZ3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AU4" s="36">
         <v>19.410196418890699</v>
@@ -20289,20 +20252,20 @@
         <f>IF(BZ4="EUR","EUR=",IF(BZ4="USD","USD=",IF(BZ4="CHF","CHF=",IF(BZ4="HKD","HKDUSD=R",IF(BZ4="GBp","GBP=",IF(BZ4="CAD","CADUSD=R",IF(BZ4="DKK","DKKUSD=R",IF(BZ4="SEK","SEKUSD=R",IF(BZ4="AUD","AUD=",IF(BZ4="JPY","JPYUSD=R",IF(BZ4="KRW","KRWUSD=R",IF(BZ4="TWD","TWDUSD=R",IF(BZ4="MXN","MXNUSD=R",IF(BZ4="SGD","SGDUSD=R",IF(BZ4="NOK","NOKUSD=R",IF(BZ4="NZD","NZD="))))))))))))))))</f>
         <v>CHF=</v>
       </c>
-      <c r="CB4" s="37" t="str">
-        <f>_xll.TR(CA4:CA195,CB3)</f>
-        <v>Retrieving...</v>
+      <c r="CB4" s="37" t="e">
+        <f ca="1">_xll.TR(CA4:CA195,CB3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="CE4" t="str">
         <f>E4</f>
         <v>NESN.S</v>
       </c>
-      <c r="CF4" t="str">
-        <f>_xll.TR(CE4:CE195,CF3)</f>
-        <v>Nestle SA</v>
+      <c r="CF4" t="e">
+        <f ca="1">_xll.TR(CE4:CE195,CF3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -20574,7 +20537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -20846,7 +20809,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -21118,7 +21081,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -21390,7 +21353,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -21662,7 +21625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -21934,7 +21897,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -22206,7 +22169,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -22478,7 +22441,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -22750,7 +22713,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -23022,7 +22985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
@@ -23030,8 +22993,8 @@
         <v>194</v>
       </c>
       <c r="H15" s="39" t="e">
-        <f>AVERAGE(H4:H14)</f>
-        <v>#VALUE!</v>
+        <f ca="1">AVERAGE(H4:H14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I15" s="38">
         <f>AVERAGE(I4:I14)</f>
@@ -23042,9 +23005,9 @@
       <c r="L15" s="10"/>
       <c r="M15" s="38"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="38">
-        <f t="shared" ref="O15:AP15" si="43">AVERAGE(O4:O14)</f>
-        <v>22.303436901138728</v>
+      <c r="O15" s="38" t="e">
+        <f t="shared" ref="O15:AP15" ca="1" si="43">AVERAGE(O4:O14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P15" s="38">
         <f t="shared" si="43"/>
@@ -23144,7 +23107,7 @@
       </c>
       <c r="AS15" s="15"/>
     </row>
-    <row r="16" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="F16" s="3"/>
       <c r="G16" s="16"/>
       <c r="H16" s="40"/>
@@ -23184,7 +23147,7 @@
       <c r="AP16" s="17"/>
       <c r="AS16" s="15"/>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>225</v>
       </c>
@@ -23452,7 +23415,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -23724,7 +23687,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>229</v>
       </c>
@@ -23996,7 +23959,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -24268,7 +24231,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -24540,7 +24503,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>542</v>
       </c>
@@ -24812,7 +24775,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -25084,7 +25047,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -25356,7 +25319,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -25628,7 +25591,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -25900,7 +25863,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -26172,7 +26135,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -26444,7 +26407,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F29" s="3"/>
       <c r="G29" s="14" t="s">
         <v>194</v>
@@ -26564,7 +26527,7 @@
       </c>
       <c r="AS29" s="15"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="16"/>
       <c r="H30" s="40"/>
@@ -26604,7 +26567,7 @@
       <c r="AP30" s="17"/>
       <c r="AS30" s="15"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -26648,7 +26611,7 @@
       <c r="AP31" s="7"/>
       <c r="AS31" s="15"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -26920,7 +26883,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>248</v>
       </c>
@@ -27192,7 +27155,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>250</v>
       </c>
@@ -27464,7 +27427,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>252</v>
       </c>
@@ -27736,7 +27699,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -28008,7 +27971,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>258</v>
       </c>
@@ -28280,7 +28243,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>260</v>
       </c>
@@ -28552,7 +28515,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>262</v>
       </c>
@@ -28824,7 +28787,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -29096,7 +29059,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -29368,7 +29331,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -29640,7 +29603,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>270</v>
       </c>
@@ -29912,7 +29875,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -30184,7 +30147,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>274</v>
       </c>
@@ -30456,7 +30419,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>276</v>
       </c>
@@ -30728,7 +30691,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>279</v>
       </c>
@@ -31000,7 +30963,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>281</v>
       </c>
@@ -31272,7 +31235,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>283</v>
       </c>
@@ -31544,7 +31507,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F50" s="3"/>
       <c r="G50" s="14" t="s">
         <v>194</v>
@@ -31664,7 +31627,7 @@
       </c>
       <c r="AS50" s="15"/>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F51" s="3"/>
       <c r="G51" s="16"/>
       <c r="H51" s="40"/>
@@ -31704,7 +31667,7 @@
       <c r="AP51" s="17"/>
       <c r="AS51" s="15"/>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -31748,7 +31711,7 @@
       <c r="AP52" s="7"/>
       <c r="AS52" s="15"/>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>286</v>
       </c>
@@ -32017,7 +31980,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>288</v>
       </c>
@@ -32286,7 +32249,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>290</v>
       </c>
@@ -32555,7 +32518,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>292</v>
       </c>
@@ -32824,7 +32787,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>294</v>
       </c>
@@ -33093,7 +33056,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>296</v>
       </c>
@@ -33362,7 +33325,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="59" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F59" s="3"/>
       <c r="G59" s="14" t="s">
         <v>194</v>
@@ -33482,7 +33445,7 @@
       </c>
       <c r="AS59" s="15"/>
     </row>
-    <row r="60" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F60" s="3"/>
       <c r="G60" s="16"/>
       <c r="H60" s="40"/>
@@ -33522,7 +33485,7 @@
       <c r="AP60" s="17"/>
       <c r="AS60" s="15"/>
     </row>
-    <row r="61" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>298</v>
       </c>
@@ -33790,7 +33753,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -34062,7 +34025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>302</v>
       </c>
@@ -34334,7 +34297,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>304</v>
       </c>
@@ -34606,7 +34569,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>306</v>
       </c>
@@ -34878,7 +34841,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>308</v>
       </c>
@@ -35150,7 +35113,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>310</v>
       </c>
@@ -35422,7 +35385,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>312</v>
       </c>
@@ -35694,7 +35657,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>314</v>
       </c>
@@ -35966,7 +35929,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>316</v>
       </c>
@@ -36238,7 +36201,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>318</v>
       </c>
@@ -36510,7 +36473,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>312</v>
       </c>
@@ -36782,7 +36745,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>320</v>
       </c>
@@ -37054,7 +37017,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>322</v>
       </c>
@@ -37326,7 +37289,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>324</v>
       </c>
@@ -37598,7 +37561,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="76" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>326</v>
       </c>
@@ -37870,7 +37833,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>329</v>
       </c>
@@ -38142,7 +38105,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>330</v>
       </c>
@@ -38414,7 +38377,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>332</v>
       </c>
@@ -38686,7 +38649,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>334</v>
       </c>
@@ -38958,7 +38921,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>336</v>
       </c>
@@ -39230,7 +39193,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>338</v>
       </c>
@@ -39502,7 +39465,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>340</v>
       </c>
@@ -39774,7 +39737,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="84" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -40046,7 +40009,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="85" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>344</v>
       </c>
@@ -40318,7 +40281,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>346</v>
       </c>
@@ -40590,7 +40553,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>348</v>
       </c>
@@ -40862,7 +40825,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>350</v>
       </c>
@@ -41134,7 +41097,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="89" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -41406,7 +41369,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>355</v>
       </c>
@@ -41678,7 +41641,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -41950,7 +41913,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>359</v>
       </c>
@@ -42222,7 +42185,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>361</v>
       </c>
@@ -42494,7 +42457,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>363</v>
       </c>
@@ -42766,7 +42729,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="95" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>365</v>
       </c>
@@ -43038,7 +43001,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>367</v>
       </c>
@@ -43310,7 +43273,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>369</v>
       </c>
@@ -43582,7 +43545,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="98" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>371</v>
       </c>
@@ -43854,7 +43817,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>373</v>
       </c>
@@ -44126,7 +44089,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>375</v>
       </c>
@@ -44398,7 +44361,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>377</v>
       </c>
@@ -44670,7 +44633,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>379</v>
       </c>
@@ -44942,7 +44905,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="103" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>381</v>
       </c>
@@ -45214,7 +45177,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>383</v>
       </c>
@@ -45486,7 +45449,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="105" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>329</v>
       </c>
@@ -45758,7 +45721,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>385</v>
       </c>
@@ -46030,7 +45993,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="107" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>387</v>
       </c>
@@ -46302,7 +46265,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>389</v>
       </c>
@@ -46574,7 +46537,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="109" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>391</v>
       </c>
@@ -46846,7 +46809,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="110" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F110" s="3"/>
       <c r="G110" s="14" t="s">
         <v>194</v>
@@ -46965,7 +46928,7 @@
         <v>4915717.5884806868</v>
       </c>
     </row>
-    <row r="111" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="41"/>
@@ -47005,7 +46968,7 @@
       <c r="AP111" s="11"/>
       <c r="AS111" s="15"/>
     </row>
-    <row r="112" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>534</v>
       </c>
@@ -47272,7 +47235,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="113" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>536</v>
       </c>
@@ -47540,7 +47503,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="114" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>393</v>
       </c>
@@ -47809,7 +47772,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>395</v>
       </c>
@@ -48078,7 +48041,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>397</v>
       </c>
@@ -48347,7 +48310,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="117" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>399</v>
       </c>
@@ -48616,7 +48579,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="118" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>401</v>
       </c>
@@ -48885,7 +48848,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="119" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>403</v>
       </c>
@@ -49154,7 +49117,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="120" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>405</v>
       </c>
@@ -49423,7 +49386,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="121" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>407</v>
       </c>
@@ -49693,7 +49656,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>409</v>
       </c>
@@ -49962,7 +49925,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="123" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>411</v>
       </c>
@@ -50231,7 +50194,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="124" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>413</v>
       </c>
@@ -50500,7 +50463,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="125" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>415</v>
       </c>
@@ -50769,7 +50732,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="126" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>417</v>
       </c>
@@ -51038,7 +51001,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="127" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -51307,7 +51270,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="128" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -51576,7 +51539,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>423</v>
       </c>
@@ -51845,7 +51808,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>425</v>
       </c>
@@ -52114,7 +52077,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="131" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>427</v>
       </c>
@@ -52383,7 +52346,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="132" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>429</v>
       </c>
@@ -52652,7 +52615,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="133" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -52921,7 +52884,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -53190,7 +53153,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>436</v>
       </c>
@@ -53459,7 +53422,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="136" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>438</v>
       </c>
@@ -53728,7 +53691,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="137" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>440</v>
       </c>
@@ -53997,7 +53960,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="138" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F138" s="3"/>
       <c r="G138" s="14" t="s">
         <v>194</v>
@@ -54117,7 +54080,7 @@
       </c>
       <c r="AS138" s="15"/>
     </row>
-    <row r="139" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="41"/>
@@ -54157,7 +54120,7 @@
       <c r="AP139" s="11"/>
       <c r="AS139" s="15"/>
     </row>
-    <row r="140" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>442</v>
       </c>
@@ -54425,7 +54388,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="141" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>444</v>
       </c>
@@ -54694,7 +54657,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="142" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>446</v>
       </c>
@@ -54963,7 +54926,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="143" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>448</v>
       </c>
@@ -55232,7 +55195,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="144" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>450</v>
       </c>
@@ -55501,7 +55464,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="145" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>452</v>
       </c>
@@ -55770,7 +55733,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="146" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>454</v>
       </c>
@@ -56039,7 +56002,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="147" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>456</v>
       </c>
@@ -56308,7 +56271,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="148" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F148" s="3"/>
       <c r="G148" s="14" t="s">
         <v>194</v>
@@ -56428,7 +56391,7 @@
       </c>
       <c r="AS148" s="15"/>
     </row>
-    <row r="149" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F149" s="3"/>
       <c r="G149" s="16"/>
       <c r="H149" s="40"/>
@@ -56468,7 +56431,7 @@
       <c r="AP149" s="17"/>
       <c r="AS149" s="15"/>
     </row>
-    <row r="150" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>458</v>
       </c>
@@ -56736,7 +56699,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="151" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>460</v>
       </c>
@@ -57005,7 +56968,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>462</v>
       </c>
@@ -57274,7 +57237,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="153" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>464</v>
       </c>
@@ -57543,7 +57506,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="154" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>466</v>
       </c>
@@ -57812,7 +57775,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="155" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>468</v>
       </c>
@@ -58081,7 +58044,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="156" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>470</v>
       </c>
@@ -58350,7 +58313,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>472</v>
       </c>
@@ -58619,7 +58582,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="158" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>474</v>
       </c>
@@ -58888,7 +58851,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -59157,7 +59120,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="160" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>478</v>
       </c>
@@ -59426,7 +59389,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F161" s="3"/>
       <c r="G161" s="14" t="s">
         <v>194</v>
@@ -59546,7 +59509,7 @@
       </c>
       <c r="AS161" s="15"/>
     </row>
-    <row r="162" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F162" s="3"/>
       <c r="G162" s="16"/>
       <c r="H162" s="40"/>
@@ -59586,7 +59549,7 @@
       <c r="AP162" s="17"/>
       <c r="AS162" s="15"/>
     </row>
-    <row r="163" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -59630,7 +59593,7 @@
       <c r="AP163" s="7"/>
       <c r="AS163" s="15"/>
     </row>
-    <row r="164" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>480</v>
       </c>
@@ -59899,7 +59862,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="165" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>482</v>
       </c>
@@ -60168,7 +60131,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="166" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>484</v>
       </c>
@@ -60437,7 +60400,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="167" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>486</v>
       </c>
@@ -60706,7 +60669,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="168" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>487</v>
       </c>
@@ -60975,7 +60938,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="169" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>489</v>
       </c>
@@ -61244,7 +61207,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="170" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>491</v>
       </c>
@@ -61513,7 +61476,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="171" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>493</v>
       </c>
@@ -61782,7 +61745,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="172" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>495</v>
       </c>
@@ -62051,7 +62014,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="173" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>497</v>
       </c>
@@ -62320,7 +62283,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="174" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>551</v>
       </c>
@@ -62589,7 +62552,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="175" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>500</v>
       </c>
@@ -62858,7 +62821,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="176" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>502</v>
       </c>
@@ -63127,7 +63090,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="177" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>505</v>
       </c>
@@ -63396,7 +63359,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="178" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>507</v>
       </c>
@@ -63665,7 +63628,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="179" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F179" s="3"/>
       <c r="G179" s="14" t="s">
         <v>194</v>
@@ -63785,7 +63748,7 @@
       </c>
       <c r="AS179" s="15"/>
     </row>
-    <row r="180" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F180" s="3"/>
       <c r="G180" s="16"/>
       <c r="H180" s="40"/>
@@ -63825,7 +63788,7 @@
       <c r="AP180" s="17"/>
       <c r="AS180" s="15"/>
     </row>
-    <row r="181" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>509</v>
       </c>
@@ -64093,7 +64056,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="182" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>511</v>
       </c>
@@ -64365,7 +64328,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="183" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -64634,7 +64597,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="184" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>515</v>
       </c>
@@ -64903,7 +64866,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="185" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>544</v>
       </c>
@@ -65172,7 +65135,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="186" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>540</v>
       </c>
@@ -65440,7 +65403,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="187" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>517</v>
       </c>
@@ -65709,7 +65672,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="188" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F188" s="3"/>
       <c r="G188" s="14" t="s">
         <v>194</v>
@@ -65829,7 +65792,7 @@
       </c>
       <c r="AS188" s="15"/>
     </row>
-    <row r="189" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F189" s="3"/>
       <c r="G189" s="16"/>
       <c r="H189" s="40"/>
@@ -65869,7 +65832,7 @@
       <c r="AP189" s="17"/>
       <c r="AS189" s="15"/>
     </row>
-    <row r="190" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>519</v>
       </c>
@@ -66137,7 +66100,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="191" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>521</v>
       </c>
@@ -66406,7 +66369,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="192" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>523</v>
       </c>
@@ -66675,7 +66638,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="193" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>525</v>
       </c>
@@ -66944,7 +66907,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="194" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>527</v>
       </c>
@@ -67213,7 +67176,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="195" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>530</v>
       </c>
@@ -67482,7 +67445,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="196" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F196" s="3"/>
       <c r="G196" s="14" t="s">
         <v>194</v>
@@ -67601,7 +67564,7 @@
         <v>5859919.0636218302</v>
       </c>
     </row>
-    <row r="197" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F197" s="3"/>
       <c r="G197" s="16"/>
       <c r="H197" s="40"/>
@@ -67659,9 +67622,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R4" t="s">
         <v>546</v>
       </c>
@@ -67690,7 +67653,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="5" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R5" t="s">
         <v>546</v>
       </c>
@@ -67719,7 +67682,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="6" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R6" t="s">
         <v>546</v>
       </c>
@@ -67748,7 +67711,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="7" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R7" t="s">
         <v>546</v>
       </c>
@@ -67777,7 +67740,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="8" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R8" t="s">
         <v>546</v>
       </c>
@@ -67806,7 +67769,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="9" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R9" t="s">
         <v>546</v>
       </c>
@@ -67835,7 +67798,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>546</v>
       </c>
@@ -67864,7 +67827,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="11" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R11" t="s">
         <v>546</v>
       </c>
@@ -67893,7 +67856,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="12" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R12" t="s">
         <v>546</v>
       </c>
@@ -67922,7 +67885,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R13" t="s">
         <v>546</v>
       </c>
@@ -67951,7 +67914,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="14" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R14" t="s">
         <v>546</v>
       </c>
@@ -67980,7 +67943,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="17" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R17" t="s">
         <v>546</v>
       </c>
@@ -68009,7 +67972,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="18" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R18" t="s">
         <v>546</v>
       </c>
@@ -68038,7 +68001,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="19" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R19" t="s">
         <v>546</v>
       </c>
@@ -68067,7 +68030,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="20" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R20" t="s">
         <v>546</v>
       </c>
@@ -68096,7 +68059,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="21" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R21" t="s">
         <v>546</v>
       </c>
@@ -68125,7 +68088,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="22" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R22" t="s">
         <v>546</v>
       </c>
@@ -68154,7 +68117,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="23" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R23" t="s">
         <v>546</v>
       </c>
@@ -68183,7 +68146,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="24" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R24" t="s">
         <v>546</v>
       </c>
@@ -68212,7 +68175,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="25" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R25" t="s">
         <v>546</v>
       </c>
@@ -68241,7 +68204,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="26" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R26" t="s">
         <v>546</v>
       </c>
@@ -68270,7 +68233,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="27" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R27" t="s">
         <v>546</v>
       </c>
@@ -68299,7 +68262,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="28" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R28" t="s">
         <v>546</v>
       </c>
@@ -68328,7 +68291,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="32" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R32" t="s">
         <v>546</v>
       </c>
@@ -68357,7 +68320,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="33" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R33" t="s">
         <v>546</v>
       </c>
@@ -68386,7 +68349,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="34" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R34" t="s">
         <v>546</v>
       </c>
@@ -68415,7 +68378,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="35" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R35" t="s">
         <v>546</v>
       </c>
@@ -68444,7 +68407,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="36" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R36" t="s">
         <v>546</v>
       </c>
@@ -68473,7 +68436,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="37" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R37" t="s">
         <v>546</v>
       </c>
@@ -68502,7 +68465,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="38" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R38" t="s">
         <v>546</v>
       </c>
@@ -68531,7 +68494,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="39" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R39" t="s">
         <v>546</v>
       </c>
@@ -68560,7 +68523,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="40" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R40" t="s">
         <v>546</v>
       </c>
@@ -68589,7 +68552,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="41" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R41" t="s">
         <v>546</v>
       </c>
@@ -68618,7 +68581,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="42" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
         <v>546</v>
       </c>
@@ -68647,7 +68610,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="43" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R43" t="s">
         <v>546</v>
       </c>
@@ -68676,7 +68639,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="44" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R44" t="s">
         <v>546</v>
       </c>
@@ -68705,7 +68668,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="45" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R45" t="s">
         <v>546</v>
       </c>
@@ -68734,7 +68697,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="46" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R46" t="s">
         <v>546</v>
       </c>
@@ -68763,7 +68726,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="47" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R47" t="s">
         <v>546</v>
       </c>
@@ -68792,7 +68755,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="48" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R48" t="s">
         <v>546</v>
       </c>
@@ -68821,7 +68784,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="49" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R49" t="s">
         <v>546</v>
       </c>
@@ -68850,7 +68813,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="53" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R53" t="s">
         <v>546</v>
       </c>
@@ -68879,7 +68842,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="54" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R54" t="s">
         <v>546</v>
       </c>
@@ -68908,7 +68871,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="55" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R55" t="s">
         <v>546</v>
       </c>
@@ -68937,7 +68900,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="56" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R56" t="s">
         <v>546</v>
       </c>
@@ -68966,7 +68929,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="57" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R57" t="s">
         <v>546</v>
       </c>
@@ -68995,7 +68958,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="58" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R58" t="s">
         <v>546</v>
       </c>
@@ -69021,7 +68984,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="61" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R61" t="s">
         <v>546</v>
       </c>
@@ -69050,7 +69013,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="62" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R62" t="s">
         <v>546</v>
       </c>
@@ -69079,7 +69042,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="63" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R63" t="s">
         <v>546</v>
       </c>
@@ -69108,7 +69071,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="64" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R64" t="s">
         <v>546</v>
       </c>
@@ -69137,7 +69100,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="65" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R65" t="s">
         <v>546</v>
       </c>
@@ -69166,7 +69129,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="66" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R66" t="s">
         <v>546</v>
       </c>
@@ -69195,7 +69158,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="67" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R67" t="s">
         <v>546</v>
       </c>
@@ -69224,7 +69187,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="68" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R68" t="s">
         <v>546</v>
       </c>
@@ -69253,7 +69216,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="69" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R69" t="s">
         <v>546</v>
       </c>
@@ -69282,7 +69245,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="70" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R70" t="s">
         <v>546</v>
       </c>
@@ -69311,7 +69274,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="71" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R71" t="s">
         <v>546</v>
       </c>
@@ -69340,7 +69303,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="72" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R72" t="s">
         <v>546</v>
       </c>
@@ -69369,7 +69332,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="73" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R73" t="s">
         <v>546</v>
       </c>
@@ -69398,7 +69361,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="74" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R74" t="s">
         <v>546</v>
       </c>
@@ -69427,7 +69390,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="75" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="75" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R75" t="s">
         <v>546</v>
       </c>
@@ -69456,7 +69419,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="76" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R76" t="s">
         <v>546</v>
       </c>
@@ -69485,7 +69448,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="77" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R77" t="s">
         <v>546</v>
       </c>
@@ -69511,7 +69474,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="78" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R78" t="s">
         <v>546</v>
       </c>
@@ -69540,7 +69503,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="79" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R79" t="s">
         <v>546</v>
       </c>
@@ -69569,7 +69532,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="80" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R80" t="s">
         <v>546</v>
       </c>
@@ -69598,7 +69561,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="81" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R81" t="s">
         <v>546</v>
       </c>
@@ -69627,7 +69590,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="82" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="82" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R82" t="s">
         <v>546</v>
       </c>
@@ -69656,7 +69619,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="83" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="83" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R83" t="s">
         <v>546</v>
       </c>
@@ -69685,7 +69648,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="84" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="84" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R84" t="s">
         <v>546</v>
       </c>
@@ -69714,7 +69677,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="85" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="85" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R85" t="s">
         <v>546</v>
       </c>
@@ -69743,7 +69706,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="86" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="86" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R86" t="s">
         <v>546</v>
       </c>
@@ -69772,7 +69735,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="87" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="87" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R87" t="s">
         <v>546</v>
       </c>
@@ -69801,7 +69764,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="88" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R88" t="s">
         <v>546</v>
       </c>
@@ -69830,7 +69793,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="89" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R89" t="s">
         <v>546</v>
       </c>
@@ -69859,7 +69822,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="90" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="90" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R90" t="s">
         <v>546</v>
       </c>
@@ -69888,7 +69851,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="91" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="91" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R91" t="s">
         <v>546</v>
       </c>
@@ -69917,7 +69880,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="92" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R92" t="s">
         <v>546</v>
       </c>
@@ -69946,7 +69909,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="93" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R93" t="s">
         <v>546</v>
       </c>
@@ -69975,7 +69938,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="94" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="94" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R94" t="s">
         <v>546</v>
       </c>
@@ -70004,7 +69967,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="95" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="95" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R95" t="s">
         <v>546</v>
       </c>
@@ -70033,7 +69996,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="96" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="96" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R96" t="s">
         <v>546</v>
       </c>
@@ -70062,7 +70025,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="97" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="97" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R97" t="s">
         <v>546</v>
       </c>
@@ -70091,7 +70054,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="98" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="98" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R98" t="s">
         <v>546</v>
       </c>
@@ -70120,7 +70083,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="99" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="99" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R99" t="s">
         <v>546</v>
       </c>
@@ -70149,7 +70112,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="100" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="100" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R100" t="s">
         <v>546</v>
       </c>
@@ -70178,7 +70141,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="101" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="101" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R101" t="s">
         <v>546</v>
       </c>
@@ -70207,7 +70170,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="102" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="102" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R102" t="s">
         <v>546</v>
       </c>
@@ -70236,7 +70199,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="103" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="103" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R103" t="s">
         <v>546</v>
       </c>
@@ -70265,7 +70228,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="104" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="104" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R104" t="s">
         <v>546</v>
       </c>
@@ -70291,7 +70254,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="105" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="105" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R105" t="s">
         <v>546</v>
       </c>
@@ -70317,7 +70280,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="106" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="106" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R106" t="s">
         <v>546</v>
       </c>
@@ -70346,7 +70309,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="107" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="107" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R107" t="s">
         <v>546</v>
       </c>
@@ -70375,7 +70338,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="108" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="108" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R108" t="s">
         <v>546</v>
       </c>
@@ -70404,7 +70367,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="109" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R109" t="s">
         <v>546</v>
       </c>
@@ -70433,7 +70396,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="112" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="112" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R112" t="s">
         <v>546</v>
       </c>
@@ -70462,7 +70425,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="113" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="113" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R113" t="s">
         <v>546</v>
       </c>
@@ -70491,7 +70454,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="114" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="114" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R114" t="s">
         <v>546</v>
       </c>
@@ -70520,7 +70483,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="115" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="115" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R115" t="s">
         <v>546</v>
       </c>
@@ -70549,7 +70512,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="116" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="116" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R116" t="s">
         <v>546</v>
       </c>
@@ -70578,7 +70541,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="117" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="117" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R117" t="s">
         <v>546</v>
       </c>
@@ -70607,7 +70570,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="118" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="118" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R118" t="s">
         <v>546</v>
       </c>
@@ -70636,7 +70599,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="119" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="119" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R119" t="s">
         <v>546</v>
       </c>
@@ -70665,7 +70628,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="120" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="120" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R120" t="s">
         <v>546</v>
       </c>
@@ -70694,7 +70657,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="121" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="121" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R121" t="s">
         <v>546</v>
       </c>
@@ -70723,7 +70686,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="122" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="122" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R122" t="s">
         <v>546</v>
       </c>
@@ -70752,7 +70715,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="123" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="123" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R123" t="s">
         <v>546</v>
       </c>
@@ -70781,7 +70744,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="124" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="124" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R124" t="s">
         <v>546</v>
       </c>
@@ -70810,7 +70773,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="125" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="125" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R125" t="s">
         <v>546</v>
       </c>
@@ -70839,7 +70802,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="126" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="126" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R126" t="s">
         <v>546</v>
       </c>
@@ -70868,7 +70831,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="127" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="127" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R127" t="s">
         <v>546</v>
       </c>
@@ -70897,7 +70860,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="128" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="128" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R128" t="s">
         <v>546</v>
       </c>
@@ -70926,7 +70889,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="129" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="129" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R129" t="s">
         <v>546</v>
       </c>
@@ -70955,7 +70918,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="130" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="130" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R130" t="s">
         <v>546</v>
       </c>
@@ -70984,7 +70947,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="131" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="131" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R131" t="s">
         <v>546</v>
       </c>
@@ -71013,7 +70976,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="132" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="132" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R132" t="s">
         <v>546</v>
       </c>
@@ -71042,7 +71005,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="133" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="133" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R133" t="s">
         <v>546</v>
       </c>
@@ -71071,7 +71034,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="134" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="134" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R134" t="s">
         <v>546</v>
       </c>
@@ -71100,7 +71063,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="135" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="135" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R135" t="s">
         <v>546</v>
       </c>
@@ -71129,7 +71092,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="136" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="136" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R136" t="s">
         <v>546</v>
       </c>
@@ -71155,7 +71118,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="137" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="137" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R137" t="s">
         <v>546</v>
       </c>
@@ -71181,7 +71144,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="140" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="140" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R140" t="s">
         <v>546</v>
       </c>
@@ -71210,7 +71173,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="141" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="141" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R141" t="s">
         <v>546</v>
       </c>
@@ -71239,7 +71202,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="142" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="142" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R142" t="s">
         <v>546</v>
       </c>
@@ -71268,7 +71231,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="143" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="143" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R143" t="s">
         <v>546</v>
       </c>
@@ -71297,7 +71260,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="144" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="144" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R144" t="s">
         <v>546</v>
       </c>
@@ -71326,7 +71289,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="145" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="145" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R145" t="s">
         <v>546</v>
       </c>
@@ -71355,7 +71318,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="146" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="146" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R146" t="s">
         <v>546</v>
       </c>
@@ -71384,7 +71347,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="147" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="147" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R147" t="s">
         <v>546</v>
       </c>
@@ -71413,7 +71376,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="150" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="150" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R150" t="s">
         <v>546</v>
       </c>
@@ -71442,7 +71405,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="151" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="151" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R151" t="s">
         <v>546</v>
       </c>
@@ -71471,7 +71434,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="152" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="152" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R152" t="s">
         <v>546</v>
       </c>
@@ -71500,7 +71463,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="153" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="153" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R153" t="s">
         <v>546</v>
       </c>
@@ -71529,7 +71492,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="154" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="154" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R154" t="s">
         <v>546</v>
       </c>
@@ -71558,7 +71521,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="155" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="155" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R155" t="s">
         <v>546</v>
       </c>
@@ -71587,7 +71550,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="156" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="156" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R156" t="s">
         <v>546</v>
       </c>
@@ -71616,7 +71579,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="157" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="157" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R157" t="s">
         <v>546</v>
       </c>
@@ -71645,7 +71608,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="158" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="158" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R158" t="s">
         <v>546</v>
       </c>
@@ -71674,7 +71637,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="159" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="159" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R159" t="s">
         <v>546</v>
       </c>
@@ -71703,7 +71666,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="160" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="160" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R160" t="s">
         <v>546</v>
       </c>
@@ -71732,7 +71695,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="164" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="164" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R164" t="s">
         <v>546</v>
       </c>
@@ -71761,7 +71724,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="165" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="165" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R165" t="s">
         <v>546</v>
       </c>
@@ -71790,7 +71753,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="166" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="166" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R166" t="s">
         <v>546</v>
       </c>
@@ -71819,7 +71782,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="167" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="167" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R167" t="s">
         <v>546</v>
       </c>
@@ -71848,7 +71811,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="168" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="168" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R168" t="s">
         <v>546</v>
       </c>
@@ -71877,7 +71840,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="169" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="169" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R169" t="s">
         <v>546</v>
       </c>
@@ -71906,7 +71869,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="170" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="170" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R170" t="s">
         <v>546</v>
       </c>
@@ -71935,7 +71898,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="171" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="171" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R171" t="s">
         <v>546</v>
       </c>
@@ -71964,7 +71927,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="172" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="172" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R172" t="s">
         <v>546</v>
       </c>
@@ -71993,7 +71956,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="173" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="173" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R173" t="s">
         <v>546</v>
       </c>
@@ -72022,7 +71985,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="174" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="174" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R174" t="s">
         <v>546</v>
       </c>
@@ -72048,7 +72011,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="175" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="175" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R175" t="s">
         <v>546</v>
       </c>
@@ -72077,7 +72040,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="176" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="176" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R176" t="s">
         <v>546</v>
       </c>
@@ -72106,7 +72069,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="177" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="177" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R177" t="s">
         <v>546</v>
       </c>
@@ -72135,7 +72098,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="178" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="178" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R178" t="s">
         <v>546</v>
       </c>
@@ -72164,7 +72127,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="181" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="181" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R181" t="s">
         <v>546</v>
       </c>
@@ -72193,7 +72156,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="182" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="182" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R182" t="s">
         <v>546</v>
       </c>
@@ -72222,7 +72185,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="183" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="183" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R183" t="s">
         <v>546</v>
       </c>
@@ -72251,7 +72214,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="184" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="184" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R184" t="s">
         <v>546</v>
       </c>
@@ -72280,7 +72243,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="185" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="185" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R185" t="s">
         <v>546</v>
       </c>
@@ -72309,7 +72272,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="186" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="186" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R186" t="s">
         <v>546</v>
       </c>
@@ -72335,7 +72298,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="187" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="187" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R187" t="s">
         <v>546</v>
       </c>
@@ -72364,7 +72327,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="190" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="190" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R190" t="s">
         <v>546</v>
       </c>
@@ -72393,7 +72356,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="191" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="191" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R191" t="s">
         <v>546</v>
       </c>
@@ -72422,7 +72385,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="192" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="192" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R192" t="s">
         <v>546</v>
       </c>
@@ -72451,7 +72414,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="193" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="193" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R193" t="s">
         <v>546</v>
       </c>
@@ -72480,7 +72443,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="194" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="194" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R194" t="s">
         <v>546</v>
       </c>
@@ -72509,7 +72472,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="195" spans="18:26" x14ac:dyDescent="0.4">
+    <row r="195" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R195" t="s">
         <v>546</v>
       </c>
@@ -72551,23 +72514,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A732CE09-D791-47CB-9D75-D7E80120759F}">
   <dimension ref="A2:Z197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4609375" defaultRowHeight="14.6" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="36.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="2.84375" customWidth="1"/>
-    <col min="7" max="15" width="11.23046875" style="8" customWidth="1"/>
-    <col min="18" max="24" width="11.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.69140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="7" max="15" width="11.1640625" style="8" customWidth="1"/>
+    <col min="18" max="24" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="H2" s="9"/>
       <c r="J2" s="20"/>
       <c r="L2" s="9"/>
@@ -72601,7 +72564,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -72674,7 +72637,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -72688,8 +72651,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="42">
-        <f>R4</f>
-        <v>19.177399999999999</v>
+        <v>19.18</v>
       </c>
       <c r="H4" s="42">
         <f t="shared" ref="H4:O4" si="0">S4</f>
@@ -72726,9 +72688,9 @@
       <c r="Q4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="36">
-        <f>_xll.TR(Q4:Q195,R3:Z3)</f>
-        <v>19.177399999999999</v>
+      <c r="R4" s="36" t="e">
+        <f ca="1">_xll.TR(Q4:Q195,R3:Z3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S4" s="36">
         <v>2.4333999999999998</v>
@@ -72755,7 +72717,7 @@
         <v>12.951345575293701</v>
       </c>
     </row>
-    <row r="5" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -72773,7 +72735,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="42">
-        <f t="shared" ref="G5:G14" si="1">R5</f>
+        <f t="shared" ref="G4:G14" si="1">R5</f>
         <v>8.5074000000000005</v>
       </c>
       <c r="H5" s="42">
@@ -72839,7 +72801,7 @@
         <v>56.0225793320542</v>
       </c>
     </row>
-    <row r="6" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -72923,7 +72885,7 @@
         <v>26.055031442975299</v>
       </c>
     </row>
-    <row r="7" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -73007,7 +72969,7 @@
         <v>27.168504252510299</v>
       </c>
     </row>
-    <row r="8" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -73091,7 +73053,7 @@
         <v>287.72872083970299</v>
       </c>
     </row>
-    <row r="9" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -73175,7 +73137,7 @@
         <v>57.547033761466203</v>
       </c>
     </row>
-    <row r="10" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -73259,7 +73221,7 @@
         <v>25.8147396429999</v>
       </c>
     </row>
-    <row r="11" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -73343,7 +73305,7 @@
         <v>14.186523318198599</v>
       </c>
     </row>
-    <row r="12" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -73427,7 +73389,7 @@
         <v>12.5557574076504</v>
       </c>
     </row>
-    <row r="13" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -73511,7 +73473,7 @@
         <v>69.869829233375398</v>
       </c>
     </row>
-    <row r="14" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -73595,13 +73557,13 @@
         <v>58.952106324597501</v>
       </c>
     </row>
-    <row r="15" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="38">
         <f>AVERAGE(G4:G14)</f>
-        <v>0.30861818181818185</v>
+        <v>0.30885454545454555</v>
       </c>
       <c r="H15" s="38">
         <f t="shared" ref="H15:O15" si="10">AVERAGE(H4:H14)</f>
@@ -73637,7 +73599,7 @@
       </c>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="F16" s="3"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -73650,7 +73612,7 @@
       <c r="O16" s="18"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>225</v>
       </c>
@@ -73730,7 +73692,7 @@
         <v>66.242670409365601</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -73814,7 +73776,7 @@
         <v>34.6293254792186</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>229</v>
       </c>
@@ -73898,7 +73860,7 @@
         <v>58.348044909488102</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -73982,7 +73944,7 @@
         <v>40.243576088616699</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -74066,7 +74028,7 @@
         <v>117.054786582147</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>542</v>
       </c>
@@ -74150,7 +74112,7 @@
         <v>74.194582463157403</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -74234,7 +74196,7 @@
         <v>146.46449999958</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -74318,7 +74280,7 @@
         <v>110.323901093743</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -74402,7 +74364,7 @@
         <v>44.082318905649899</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -74486,7 +74448,7 @@
         <v>102.39006091485101</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -74570,7 +74532,7 @@
         <v>139.07061889101999</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -74654,7 +74616,7 @@
         <v>144.64606472218099</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F29" s="3"/>
       <c r="G29" s="38">
         <f>AVERAGE(G17:G28)</f>
@@ -74694,7 +74656,7 @@
       </c>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -74707,7 +74669,7 @@
       <c r="O30" s="18"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -74721,7 +74683,7 @@
       <c r="L31" s="9"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -74805,7 +74767,7 @@
         <v>-10.987868314635501</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>248</v>
       </c>
@@ -74889,7 +74851,7 @@
         <v>2.9537801349069701</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>250</v>
       </c>
@@ -74973,7 +74935,7 @@
         <v>-43.831953784739099</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>252</v>
       </c>
@@ -75057,7 +75019,7 @@
         <v>-3.20800231505015</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -75141,7 +75103,7 @@
         <v>37.018484198083598</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>258</v>
       </c>
@@ -75225,7 +75187,7 @@
         <v>10.160727688186199</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>260</v>
       </c>
@@ -75309,7 +75271,7 @@
         <v>54.3591833770016</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>262</v>
       </c>
@@ -75393,7 +75355,7 @@
         <v>53.959175888898997</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -75477,7 +75439,7 @@
         <v>47.293214746935</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -75561,7 +75523,7 @@
         <v>-29.200451409870102</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -75645,7 +75607,7 @@
         <v>99.748571857503094</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>270</v>
       </c>
@@ -75729,7 +75691,7 @@
         <v>98.495360137302498</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -75813,7 +75775,7 @@
         <v>370.71030805135899</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>274</v>
       </c>
@@ -75897,7 +75859,7 @@
         <v>22.671051694446501</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>276</v>
       </c>
@@ -75981,7 +75943,7 @@
         <v>16.7435614830347</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>279</v>
       </c>
@@ -76065,7 +76027,7 @@
         <v>-32.797134793812099</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>281</v>
       </c>
@@ -76149,7 +76111,7 @@
         <v>38.231070079376202</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>283</v>
       </c>
@@ -76233,7 +76195,7 @@
         <v>-58.732581118273401</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F50" s="3"/>
       <c r="G50" s="38">
         <f>AVERAGE(G32:G49)</f>
@@ -76273,7 +76235,7 @@
       </c>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F51" s="3"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -76286,7 +76248,7 @@
       <c r="O51" s="18"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -76300,7 +76262,7 @@
       <c r="L52" s="9"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>286</v>
       </c>
@@ -76381,7 +76343,7 @@
         <v>148.92098954833901</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>288</v>
       </c>
@@ -76462,7 +76424,7 @@
         <v>120.19877313567</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>290</v>
       </c>
@@ -76543,7 +76505,7 @@
         <v>77.381639536769001</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>292</v>
       </c>
@@ -76624,7 +76586,7 @@
         <v>171.17842453832401</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>294</v>
       </c>
@@ -76705,7 +76667,7 @@
         <v>199.95299963578699</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>296</v>
       </c>
@@ -76786,7 +76748,7 @@
         <v>-91.957014705482607</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F59" s="3"/>
       <c r="G59" s="38">
         <f>AVERAGE(G53:G58)</f>
@@ -76826,7 +76788,7 @@
       </c>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F60" s="3"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -76839,7 +76801,7 @@
       <c r="O60" s="18"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>298</v>
       </c>
@@ -76919,7 +76881,7 @@
         <v>37.508660454755798</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -77003,7 +76965,7 @@
         <v>42.805899581336803</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>302</v>
       </c>
@@ -77087,7 +77049,7 @@
         <v>57.028590921617997</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>304</v>
       </c>
@@ -77171,7 +77133,7 @@
         <v>31.735701268422599</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>306</v>
       </c>
@@ -77255,7 +77217,7 @@
         <v>-30.110860492160999</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>308</v>
       </c>
@@ -77339,7 +77301,7 @@
         <v>23.806127729019099</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>310</v>
       </c>
@@ -77423,7 +77385,7 @@
         <v>64.108001390416106</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>312</v>
       </c>
@@ -77507,7 +77469,7 @@
         <v>-1.56254175889378</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>314</v>
       </c>
@@ -77591,7 +77553,7 @@
         <v>96.3480549155055</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>316</v>
       </c>
@@ -77675,7 +77637,7 @@
         <v>217.66973534283699</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>318</v>
       </c>
@@ -77759,7 +77721,7 @@
         <v>102.60133417178101</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>312</v>
       </c>
@@ -77843,7 +77805,7 @@
         <v>-1.56254175889378</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>320</v>
       </c>
@@ -77927,7 +77889,7 @@
         <v>8.9999285281835402</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>322</v>
       </c>
@@ -78011,7 +77973,7 @@
         <v>-15.9382871089351</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>324</v>
       </c>
@@ -78095,7 +78057,7 @@
         <v>16.950221133899301</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>326</v>
       </c>
@@ -78179,7 +78141,7 @@
         <v>-42.287581700961603</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>329</v>
       </c>
@@ -78263,7 +78225,7 @@
         <v>-97.943069306930695</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>330</v>
       </c>
@@ -78347,7 +78309,7 @@
         <v>-26.208088857966398</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>332</v>
       </c>
@@ -78431,7 +78393,7 @@
         <v>17.5343136891474</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>334</v>
       </c>
@@ -78515,7 +78477,7 @@
         <v>-40.321781616983102</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>336</v>
       </c>
@@ -78599,7 +78561,7 @@
         <v>19.1936937424083</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>338</v>
       </c>
@@ -78683,7 +78645,7 @@
         <v>31.1207460424855</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>340</v>
       </c>
@@ -78767,7 +78729,7 @@
         <v>-8.5394361906338805</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -78851,7 +78813,7 @@
         <v>87.626294256958204</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>344</v>
       </c>
@@ -78935,7 +78897,7 @@
         <v>37.368990785105296</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>346</v>
       </c>
@@ -79019,7 +78981,7 @@
         <v>0.26330200486321997</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>348</v>
       </c>
@@ -79103,7 +79065,7 @@
         <v>148.300303626096</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>350</v>
       </c>
@@ -79187,7 +79149,7 @@
         <v>28.744277187588501</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -79271,7 +79233,7 @@
         <v>54.182633294571801</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>355</v>
       </c>
@@ -79355,7 +79317,7 @@
         <v>11.914954838166301</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -79439,7 +79401,7 @@
         <v>169.76561623812501</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>359</v>
       </c>
@@ -79523,7 +79485,7 @@
         <v>-17.918178935774598</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>361</v>
       </c>
@@ -79607,7 +79569,7 @@
         <v>21.283920655063799</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>363</v>
       </c>
@@ -79691,7 +79653,7 @@
         <v>32.103786765268097</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>365</v>
       </c>
@@ -79775,7 +79737,7 @@
         <v>-20.748934935293899</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>367</v>
       </c>
@@ -79859,7 +79821,7 @@
         <v>-65.791703649885804</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>369</v>
       </c>
@@ -79943,7 +79905,7 @@
         <v>59.8173441702681</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>371</v>
       </c>
@@ -80027,7 +79989,7 @@
         <v>66.243307084682598</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>373</v>
       </c>
@@ -80111,7 +80073,7 @@
         <v>163.60776087709601</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>375</v>
       </c>
@@ -80195,7 +80157,7 @@
         <v>30.9596585804447</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>377</v>
       </c>
@@ -80279,7 +80241,7 @@
         <v>14.9532799055706</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>379</v>
       </c>
@@ -80363,7 +80325,7 @@
         <v>12.614217327161899</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>381</v>
       </c>
@@ -80447,7 +80409,7 @@
         <v>66.172520213596897</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>383</v>
       </c>
@@ -80531,7 +80493,7 @@
         <v>-43.086873275969801</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>329</v>
       </c>
@@ -80615,7 +80577,7 @@
         <v>-97.943069306930695</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>385</v>
       </c>
@@ -80699,7 +80661,7 @@
         <v>-95.49685190228</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>387</v>
       </c>
@@ -80783,7 +80745,7 @@
         <v>23.430885750206699</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>389</v>
       </c>
@@ -80867,7 +80829,7 @@
         <v>-26.8260641251252</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>391</v>
       </c>
@@ -80951,7 +80913,7 @@
         <v>46.386867478060601</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F110" s="3"/>
       <c r="G110" s="38">
         <f>AVERAGE(G61:G109)</f>
@@ -80990,7 +80952,7 @@
         <v>24.711531939328385</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F111" s="3"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -81003,7 +80965,7 @@
       <c r="O111" s="13"/>
       <c r="Q111" s="15"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>534</v>
       </c>
@@ -81083,7 +81045,7 @@
         <v>139.540892281553</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>536</v>
       </c>
@@ -81163,7 +81125,7 @@
         <v>107.91907088360701</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>393</v>
       </c>
@@ -81244,7 +81206,7 @@
         <v>76.724163337297398</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>395</v>
       </c>
@@ -81325,7 +81287,7 @@
         <v>223.577235791205</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>397</v>
       </c>
@@ -81406,7 +81368,7 @@
         <v>199.54818390817499</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>399</v>
       </c>
@@ -81487,7 +81449,7 @@
         <v>80.624144062230798</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>401</v>
       </c>
@@ -81568,7 +81530,7 @@
         <v>-18.353109817197499</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>403</v>
       </c>
@@ -81649,7 +81611,7 @@
         <v>192.07959426454499</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>405</v>
       </c>
@@ -81730,7 +81692,7 @@
         <v>112.241603353371</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>407</v>
       </c>
@@ -81812,7 +81774,7 @@
         <v>15.8996295829654</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>409</v>
       </c>
@@ -81893,7 +81855,7 @@
         <v>117.074906189752</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>411</v>
       </c>
@@ -81974,7 +81936,7 @@
         <v>79.096003419799999</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>413</v>
       </c>
@@ -82055,7 +82017,7 @@
         <v>-80.786136941019294</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>415</v>
       </c>
@@ -82136,7 +82098,7 @@
         <v>41.0382862824708</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>417</v>
       </c>
@@ -82217,7 +82179,7 @@
         <v>-0.93861216146472504</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -82298,7 +82260,7 @@
         <v>62.98069013333</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -82379,7 +82341,7 @@
         <v>83.274212374578596</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>423</v>
       </c>
@@ -82460,7 +82422,7 @@
         <v>266.83344172237503</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>425</v>
       </c>
@@ -82541,7 +82503,7 @@
         <v>-57.031419284104999</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>427</v>
       </c>
@@ -82622,7 +82584,7 @@
         <v>8.7070222844298293</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>429</v>
       </c>
@@ -82703,7 +82665,7 @@
         <v>66.088159769608396</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -82784,7 +82746,7 @@
         <v>818.075601481842</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -82865,7 +82827,7 @@
         <v>145.48933582138699</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>436</v>
       </c>
@@ -82946,7 +82908,7 @@
         <v>160.248493887813</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>438</v>
       </c>
@@ -83027,7 +82989,7 @@
         <v>11.157270032686499</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>440</v>
       </c>
@@ -83108,7 +83070,7 @@
         <v>-20.545660423078601</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F138" s="3"/>
       <c r="G138" s="38">
         <f>AVERAGE(G112:G137)</f>
@@ -83148,7 +83110,7 @@
       </c>
       <c r="Q138" s="15"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F139" s="3"/>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -83161,7 +83123,7 @@
       <c r="O139" s="13"/>
       <c r="Q139" s="15"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>442</v>
       </c>
@@ -83241,7 +83203,7 @@
         <v>16.589328036930201</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>444</v>
       </c>
@@ -83322,7 +83284,7 @@
         <v>139.48659552232999</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>446</v>
       </c>
@@ -83403,7 +83365,7 @@
         <v>117.96078676271701</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>448</v>
       </c>
@@ -83484,7 +83446,7 @@
         <v>220.24249941294701</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>450</v>
       </c>
@@ -83565,7 +83527,7 @@
         <v>-11.646586355511101</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>452</v>
       </c>
@@ -83646,7 +83608,7 @@
         <v>275.959124790928</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>454</v>
       </c>
@@ -83727,7 +83689,7 @@
         <v>134.614553778176</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>456</v>
       </c>
@@ -83808,7 +83770,7 @@
         <v>123.23395375311399</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F148" s="3"/>
       <c r="G148" s="38">
         <f>AVERAGE(G140:G147)</f>
@@ -83848,7 +83810,7 @@
       </c>
       <c r="Q148" s="15"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F149" s="3"/>
       <c r="G149" s="18"/>
       <c r="H149" s="18"/>
@@ -83861,7 +83823,7 @@
       <c r="O149" s="19"/>
       <c r="Q149" s="15"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>458</v>
       </c>
@@ -83941,7 +83903,7 @@
         <v>67.273606804759098</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>460</v>
       </c>
@@ -84022,7 +83984,7 @@
         <v>13.8893987477592</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>462</v>
       </c>
@@ -84103,7 +84065,7 @@
         <v>1.1456364862111099</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>464</v>
       </c>
@@ -84184,7 +84146,7 @@
         <v>24.305562842334499</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>466</v>
       </c>
@@ -84265,7 +84227,7 @@
         <v>47.176857431535801</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>468</v>
       </c>
@@ -84346,7 +84308,7 @@
         <v>24.660286802548899</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>470</v>
       </c>
@@ -84427,7 +84389,7 @@
         <v>83.745291005993096</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>472</v>
       </c>
@@ -84508,7 +84470,7 @@
         <v>18.094325322392201</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>474</v>
       </c>
@@ -84589,7 +84551,7 @@
         <v>25.1556670810524</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -84670,7 +84632,7 @@
         <v>-12.548683373751</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>478</v>
       </c>
@@ -84751,7 +84713,7 @@
         <v>4.8997764082312703</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F161" s="3"/>
       <c r="G161" s="38">
         <f>AVERAGE(G150:G160)</f>
@@ -84791,7 +84753,7 @@
       </c>
       <c r="Q161" s="15"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F162" s="3"/>
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
@@ -84804,7 +84766,7 @@
       <c r="O162" s="19"/>
       <c r="Q162" s="15"/>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -84818,7 +84780,7 @@
       <c r="L163" s="9"/>
       <c r="Q163" s="15"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>480</v>
       </c>
@@ -84899,7 +84861,7 @@
         <v>40.318594661727097</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>482</v>
       </c>
@@ -84980,7 +84942,7 @@
         <v>-59.887809211533401</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>484</v>
       </c>
@@ -85061,7 +85023,7 @@
         <v>437.74551671364702</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>486</v>
       </c>
@@ -85142,7 +85104,7 @@
         <v>209.23246873772001</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>487</v>
       </c>
@@ -85223,7 +85185,7 @@
         <v>-51.342090185892602</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>489</v>
       </c>
@@ -85304,7 +85266,7 @@
         <v>63.459204129625398</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>491</v>
       </c>
@@ -85385,7 +85347,7 @@
         <v>75.834630146224299</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>493</v>
       </c>
@@ -85466,7 +85428,7 @@
         <v>-1.77683413428226</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>495</v>
       </c>
@@ -85547,7 +85509,7 @@
         <v>-30.115830115119401</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>497</v>
       </c>
@@ -85628,7 +85590,7 @@
         <v>143.56640830318099</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>551</v>
       </c>
@@ -85709,7 +85671,7 @@
         <v>30.2380054832255</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>500</v>
       </c>
@@ -85790,7 +85752,7 @@
         <v>-22.688263727012899</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>502</v>
       </c>
@@ -85871,7 +85833,7 @@
         <v>-23.8598121940956</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>505</v>
       </c>
@@ -85952,7 +85914,7 @@
         <v>-40.894159035592303</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>507</v>
       </c>
@@ -86033,7 +85995,7 @@
         <v>-70.357899908015099</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F179" s="3"/>
       <c r="G179" s="38">
         <f>AVERAGE(G164:G178)</f>
@@ -86073,7 +86035,7 @@
       </c>
       <c r="Q179" s="15"/>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F180" s="3"/>
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
@@ -86086,7 +86048,7 @@
       <c r="O180" s="19"/>
       <c r="Q180" s="15"/>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>509</v>
       </c>
@@ -86166,7 +86128,7 @@
         <v>62.5369614989703</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>511</v>
       </c>
@@ -86250,7 +86212,7 @@
         <v>23.647506187287899</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -86331,7 +86293,7 @@
         <v>-16.710542218846999</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>515</v>
       </c>
@@ -86412,7 +86374,7 @@
         <v>3.1359976459749901</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>544</v>
       </c>
@@ -86493,7 +86455,7 @@
         <v>58.560388538166599</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>540</v>
       </c>
@@ -86574,7 +86536,7 @@
         <v>-15.195246558602699</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>517</v>
       </c>
@@ -86655,7 +86617,7 @@
         <v>-19.081643858724298</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F188" s="3"/>
       <c r="G188" s="38">
         <f>AVERAGE(G181:G187)</f>
@@ -86695,7 +86657,7 @@
       </c>
       <c r="Q188" s="15"/>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F189" s="3"/>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
@@ -86708,7 +86670,7 @@
       <c r="O189" s="19"/>
       <c r="Q189" s="15"/>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>519</v>
       </c>
@@ -86788,7 +86750,7 @@
         <v>48.257930328215899</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>521</v>
       </c>
@@ -86869,7 +86831,7 @@
         <v>106.29364681571199</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>523</v>
       </c>
@@ -86950,7 +86912,7 @@
         <v>56.562257297593</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>525</v>
       </c>
@@ -87031,7 +86993,7 @@
         <v>120.35240123092601</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>527</v>
       </c>
@@ -87112,7 +87074,7 @@
         <v>17.307069340497399</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>530</v>
       </c>
@@ -87193,7 +87155,7 @@
         <v>97.9176801064676</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F196" s="3"/>
       <c r="G196" s="38">
         <f>AVERAGE(G190:G195)</f>
@@ -87232,7 +87194,7 @@
         <v>74.448497519901977</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F197" s="3"/>
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
@@ -87246,6 +87208,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <customProperties>
     <customPr name="REFI_OFFICE_FUNCTION_CLICK_THROUGH_WORKSHEET_NAME" r:id="rId1"/>
     <customPr name="REFI_OFFICE_FUNCTION_DATA" r:id="rId2"/>
@@ -87254,6 +87217,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101003C253559CC884F4781DCE832A8CB1D80" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="26fe4eeb414f89c99b7c2c97f3b22ef3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eb00d37f-1d19-4fa1-b301-8f3f4b367310" xmlns:ns3="1b4b421c-b62c-43b7-a7e1-127b2a74bbe1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7af0977d678a6be0e6f430e6b840b42" ns2:_="" ns3:_="">
     <xsd:import namespace="eb00d37f-1d19-4fa1-b301-8f3f4b367310"/>
@@ -87460,16 +87432,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F48E4BC-7DCC-43BC-8116-03077F0505A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B36D551-F531-40C3-AA68-AE7C7ADEB8A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -87486,12 +87457,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F48E4BC-7DCC-43BC-8116-03077F0505A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/excel_data/data/Basic Consumer_Equity_Keyfigures.xlsx
+++ b/excel_data/data/Basic Consumer_Equity_Keyfigures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD1C317-43B3-4C48-9085-DF42ECEE23A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65AE76D-E8DB-B54D-98FC-D66B50F49FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27640" windowHeight="16620" firstSheet="1" activeTab="3" xr2:uid="{A8EFDF63-01B1-4D58-BAE5-78D2830B6986}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27640" windowHeight="16620" activeTab="3" xr2:uid="{A8EFDF63-01B1-4D58-BAE5-78D2830B6986}"/>
   </bookViews>
   <sheets>
     <sheet name="M2ZkODRmZDAtMGI4NC00ND" sheetId="11" state="veryHidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9959" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9968" uniqueCount="904">
   <si>
     <t>Sub-Industry</t>
   </si>
@@ -72514,8 +72514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A732CE09-D791-47CB-9D75-D7E80120759F}">
   <dimension ref="A2:Z197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -72641,7 +72641,9 @@
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -72735,7 +72737,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="42">
-        <f t="shared" ref="G4:G14" si="1">R5</f>
+        <f t="shared" ref="G5:G14" si="1">R5</f>
         <v>8.5074000000000005</v>
       </c>
       <c r="H5" s="42">
@@ -73616,7 +73618,9 @@
       <c r="A17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -76805,7 +76809,9 @@
       <c r="A61" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>6</v>
       </c>
@@ -80969,7 +80975,9 @@
       <c r="A112" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>116</v>
       </c>
@@ -81049,7 +81057,9 @@
       <c r="A113" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>116</v>
       </c>
@@ -83127,7 +83137,9 @@
       <c r="A140" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>141</v>
       </c>
@@ -83827,7 +83839,9 @@
       <c r="A150" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="C150" s="1" t="s">
         <v>149</v>
       </c>
@@ -86052,7 +86066,9 @@
       <c r="A181" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B181" s="1"/>
+      <c r="B181" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="C181" s="1" t="s">
         <v>177</v>
       </c>
@@ -86674,7 +86690,9 @@
       <c r="A190" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="C190" s="1" t="s">
         <v>185</v>
       </c>
@@ -87217,15 +87235,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101003C253559CC884F4781DCE832A8CB1D80" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="26fe4eeb414f89c99b7c2c97f3b22ef3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eb00d37f-1d19-4fa1-b301-8f3f4b367310" xmlns:ns3="1b4b421c-b62c-43b7-a7e1-127b2a74bbe1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7af0977d678a6be0e6f430e6b840b42" ns2:_="" ns3:_="">
     <xsd:import namespace="eb00d37f-1d19-4fa1-b301-8f3f4b367310"/>
@@ -87432,15 +87441,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F48E4BC-7DCC-43BC-8116-03077F0505A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B36D551-F531-40C3-AA68-AE7C7ADEB8A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -87457,4 +87467,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F48E4BC-7DCC-43BC-8116-03077F0505A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>